--- a/Examples/cicloComb/cicloComb_model.xlsx
+++ b/Examples/cicloComb/cicloComb_model.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Termoeconomia\ExIOLab\Examples\cicloComb\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unizares-my.sharepoint.com/personal/ctorresc_unizar_es/Documents/Termoeconomia/Manual TaesLab/Ejemplos/cicloComb/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75C643AA-AFFD-4A4C-A8EB-A86CB901D2CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="33" documentId="13_ncr:1_{75C643AA-AFFD-4A4C-A8EB-A86CB901D2CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C92EBF0B-C522-48EA-98B2-922D84BDBD1B}"/>
   <bookViews>
-    <workbookView xWindow="3270" yWindow="465" windowWidth="18135" windowHeight="12525" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" firstSheet="3" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PhysicalDiagram" sheetId="10" r:id="rId1"/>
@@ -18,17 +18,17 @@
     <sheet name="Flows" sheetId="2" r:id="rId3"/>
     <sheet name="Processes" sheetId="1" r:id="rId4"/>
     <sheet name="Exergy" sheetId="5" r:id="rId5"/>
-    <sheet name="WasteAllocation" sheetId="9" r:id="rId6"/>
+    <sheet name="Format" sheetId="7" r:id="rId6"/>
     <sheet name="WasteDefinition" sheetId="8" r:id="rId7"/>
-    <sheet name="Format" sheetId="7" r:id="rId8"/>
+    <sheet name="WasteAllocation" sheetId="9" r:id="rId8"/>
     <sheet name="ResourcesCost" sheetId="12" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="cgam_processes" localSheetId="3">Processes!$A$1:$E$1</definedName>
     <definedName name="tgas_c0" localSheetId="8">ResourcesCost!$A$1:$C$2</definedName>
-    <definedName name="tgas_fmt" localSheetId="7">Format!$A$1:$D$7</definedName>
+    <definedName name="tgas_fmt" localSheetId="5">Format!$A$1:$D$7</definedName>
   </definedNames>
-  <calcPr calcId="191029" refMode="R1C1"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -81,7 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="101">
   <si>
     <t>key</t>
   </si>
@@ -152,21 +152,12 @@
     <t>WTV</t>
   </si>
   <si>
-    <t>PUMP</t>
-  </si>
-  <si>
     <t>Bomba alimentacion</t>
   </si>
   <si>
-    <t>ALTN</t>
-  </si>
-  <si>
     <t>Alternador</t>
   </si>
   <si>
-    <t>COND</t>
-  </si>
-  <si>
     <t>Condensador</t>
   </si>
   <si>
@@ -203,9 +194,6 @@
     <t>EXERGY</t>
   </si>
   <si>
-    <t>(kW)</t>
-  </si>
-  <si>
     <t>EXERGY_COST</t>
   </si>
   <si>
@@ -378,6 +366,24 @@
   </si>
   <si>
     <t>Base</t>
+  </si>
+  <si>
+    <t>GEN</t>
+  </si>
+  <si>
+    <t>PMP</t>
+  </si>
+  <si>
+    <t>CND</t>
+  </si>
+  <si>
+    <t>(MW)</t>
+  </si>
+  <si>
+    <t>(€/h)</t>
+  </si>
+  <si>
+    <t>(€/MWh)</t>
   </si>
 </sst>
 </file>
@@ -498,27 +504,27 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>167244</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Imagen 1">
+        <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B422547B-5127-4276-8218-BCE6B46E6257}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4BF97E7A-EF2B-FF90-E28F-A54972152CBA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -529,18 +535,29 @@
             </a:ext>
           </a:extLst>
         </a:blip>
+        <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr>
+      <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="2047875" y="209550"/>
-          <a:ext cx="6172200" cy="6053694"/>
+          <a:off x="1638300" y="142875"/>
+          <a:ext cx="5629275" cy="6991350"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -828,8 +845,8 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -854,75 +871,75 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C3" t="s">
         <v>72</v>
       </c>
-      <c r="C3" t="s">
-        <v>76</v>
-      </c>
       <c r="D3" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C4" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -953,106 +970,106 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B5" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B6" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B7" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B8" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B9" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B10" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B12" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B13" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B14" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -1060,7 +1077,7 @@
         <v>10</v>
       </c>
       <c r="B15" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -1068,7 +1085,7 @@
         <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -1076,39 +1093,39 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B18" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" t="s">
         <v>31</v>
-      </c>
-      <c r="B19" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B20" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B21" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -1121,7 +1138,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:A12"/>
     </sheetView>
   </sheetViews>
@@ -1159,10 +1176,10 @@
         <v>6</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E2" t="s">
         <v>7</v>
@@ -1179,7 +1196,7 @@
         <v>10</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E3" t="s">
         <v>7</v>
@@ -1193,10 +1210,10 @@
         <v>12</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E4" t="s">
         <v>7</v>
@@ -1210,10 +1227,10 @@
         <v>15</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E5" t="s">
         <v>7</v>
@@ -1227,10 +1244,10 @@
         <v>17</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E6" t="s">
         <v>7</v>
@@ -1244,10 +1261,10 @@
         <v>19</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E7" t="s">
         <v>7</v>
@@ -1261,7 +1278,7 @@
         <v>21</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>22</v>
@@ -1272,16 +1289,16 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>96</v>
+      </c>
+      <c r="B9" t="s">
         <v>23</v>
       </c>
-      <c r="B9" t="s">
-        <v>24</v>
-      </c>
       <c r="C9" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E9" t="s">
         <v>7</v>
@@ -1289,16 +1306,16 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>25</v>
+        <v>95</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="E10" t="s">
         <v>7</v>
@@ -1306,36 +1323,36 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B11" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>27</v>
+        <v>97</v>
       </c>
       <c r="B12" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C12" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E12" s="4" t="s">
         <v>68</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -1349,7 +1366,7 @@
   <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="J1" sqref="J1:S1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1359,405 +1376,405 @@
         <v>0</v>
       </c>
       <c r="B1" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G1" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="C1" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="D1" s="8" t="s">
+      <c r="H1" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="E1" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="H1" s="8" t="s">
-        <v>82</v>
-      </c>
       <c r="I1" s="8" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B2">
-        <v>52513</v>
+        <v>52.512999999999998</v>
       </c>
       <c r="C2">
-        <v>52835</v>
+        <v>52.835000000000001</v>
       </c>
       <c r="D2">
-        <v>52769</v>
+        <v>52.768999999999998</v>
       </c>
       <c r="E2">
-        <v>53517</v>
+        <v>53.517000000000003</v>
       </c>
       <c r="F2">
-        <v>53056</v>
+        <v>53.055999999999997</v>
       </c>
       <c r="G2">
-        <v>53477</v>
+        <v>53.476999999999997</v>
       </c>
       <c r="H2">
-        <v>52785</v>
+        <v>52.784999999999997</v>
       </c>
       <c r="I2">
-        <v>56768</v>
+        <v>56.768000000000001</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B3">
-        <v>177657</v>
+        <v>177.65700000000001</v>
       </c>
       <c r="C3">
-        <v>178746</v>
+        <v>178.74600000000001</v>
       </c>
       <c r="D3">
-        <v>178525</v>
+        <v>178.52500000000001</v>
       </c>
       <c r="E3">
-        <v>179867</v>
+        <v>179.86699999999999</v>
       </c>
       <c r="F3">
-        <v>179495</v>
+        <v>179.495</v>
       </c>
       <c r="G3">
-        <v>179066</v>
+        <v>179.066</v>
       </c>
       <c r="H3">
-        <v>178578</v>
+        <v>178.578</v>
       </c>
       <c r="I3">
-        <v>186886</v>
+        <v>186.886</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B4">
-        <v>62159</v>
+        <v>62.158999999999999</v>
       </c>
       <c r="C4">
-        <v>63406</v>
+        <v>63.405999999999999</v>
       </c>
       <c r="D4">
-        <v>62462</v>
+        <v>62.462000000000003</v>
       </c>
       <c r="E4">
-        <v>62932</v>
+        <v>62.932000000000002</v>
       </c>
       <c r="F4">
-        <v>62802</v>
+        <v>62.802</v>
       </c>
       <c r="G4">
-        <v>62282</v>
+        <v>62.281999999999996</v>
       </c>
       <c r="H4">
-        <v>62481</v>
+        <v>62.481000000000002</v>
       </c>
       <c r="I4">
-        <v>65516</v>
+        <v>65.516000000000005</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B5">
-        <v>47729</v>
+        <v>47.728999999999999</v>
       </c>
       <c r="C5">
-        <v>48584</v>
+        <v>48.584000000000003</v>
       </c>
       <c r="D5">
-        <v>47962</v>
+        <v>47.962000000000003</v>
       </c>
       <c r="E5">
-        <v>48322</v>
+        <v>48.322000000000003</v>
       </c>
       <c r="F5">
-        <v>48222</v>
+        <v>48.222000000000001</v>
       </c>
       <c r="G5">
-        <v>47942</v>
+        <v>47.942</v>
       </c>
       <c r="H5">
-        <v>47976</v>
+        <v>47.975999999999999</v>
       </c>
       <c r="I5">
-        <v>50448</v>
+        <v>50.448</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B6">
-        <v>19680</v>
+        <v>19.68</v>
       </c>
       <c r="C6">
-        <v>19801</v>
+        <v>19.800999999999998</v>
       </c>
       <c r="D6">
-        <v>19777</v>
+        <v>19.777000000000001</v>
       </c>
       <c r="E6">
-        <v>19925</v>
+        <v>19.925000000000001</v>
       </c>
       <c r="F6">
-        <v>19884</v>
+        <v>19.884</v>
       </c>
       <c r="G6">
-        <v>20037</v>
+        <v>20.036999999999999</v>
       </c>
       <c r="H6">
-        <v>19782</v>
+        <v>19.782</v>
       </c>
       <c r="I6">
-        <v>21125</v>
+        <v>21.125</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B7">
-        <v>3930</v>
+        <v>3.93</v>
       </c>
       <c r="C7">
-        <v>3758</v>
+        <v>3.758</v>
       </c>
       <c r="D7">
-        <v>3949</v>
+        <v>3.9489999999999998</v>
       </c>
       <c r="E7">
-        <v>3979</v>
+        <v>3.9790000000000001</v>
       </c>
       <c r="F7">
-        <v>3970</v>
+        <v>3.97</v>
       </c>
       <c r="G7">
-        <v>4233</v>
+        <v>4.2329999999999997</v>
       </c>
       <c r="H7">
-        <v>4051</v>
+        <v>4.0510000000000002</v>
       </c>
       <c r="I7">
-        <v>4605</v>
+        <v>4.6050000000000004</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B8">
-        <v>4347</v>
+        <v>4.3470000000000004</v>
       </c>
       <c r="C8">
-        <v>4452</v>
+        <v>4.452</v>
       </c>
       <c r="D8">
-        <v>4395</v>
+        <v>4.3949999999999996</v>
       </c>
       <c r="E8">
-        <v>4428</v>
+        <v>4.4279999999999999</v>
       </c>
       <c r="F8">
-        <v>4392</v>
+        <v>4.3920000000000003</v>
       </c>
       <c r="G8">
-        <v>4334</v>
+        <v>4.3339999999999996</v>
       </c>
       <c r="H8">
-        <v>4928</v>
+        <v>4.9279999999999999</v>
       </c>
       <c r="I8">
-        <v>5169</v>
+        <v>5.1689999999999996</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B9">
-        <v>81.010000000000005</v>
+        <v>8.1009999999999999E-2</v>
       </c>
       <c r="C9">
-        <v>82.98</v>
+        <v>8.2979999999999998E-2</v>
       </c>
       <c r="D9">
-        <v>81.400000000000006</v>
+        <v>8.14E-2</v>
       </c>
       <c r="E9">
-        <v>82.02</v>
+        <v>8.2019999999999996E-2</v>
       </c>
       <c r="F9">
-        <v>81.849999999999994</v>
+        <v>8.1849999999999992E-2</v>
       </c>
       <c r="G9">
-        <v>80.760000000000005</v>
+        <v>8.0759999999999998E-2</v>
       </c>
       <c r="H9">
-        <v>104.7</v>
+        <v>0.1047</v>
       </c>
       <c r="I9">
-        <v>109.2</v>
+        <v>0.10920000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B10">
-        <v>362.4</v>
+        <v>0.3624</v>
       </c>
       <c r="C10">
-        <v>371.2</v>
+        <v>0.37119999999999997</v>
       </c>
       <c r="D10">
-        <v>364.2</v>
+        <v>0.36419999999999997</v>
       </c>
       <c r="E10">
-        <v>366.9</v>
+        <v>0.3669</v>
       </c>
       <c r="F10">
-        <v>366.1</v>
+        <v>0.36610000000000004</v>
       </c>
       <c r="G10">
-        <v>361.3</v>
+        <v>0.36130000000000001</v>
       </c>
       <c r="H10">
-        <v>388</v>
+        <v>0.38800000000000001</v>
       </c>
       <c r="I10">
-        <v>404.6</v>
+        <v>0.40460000000000002</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B11">
-        <v>12996</v>
+        <v>12.996</v>
       </c>
       <c r="C11">
-        <v>13312</v>
+        <v>13.311999999999999</v>
       </c>
       <c r="D11">
-        <v>13059</v>
+        <v>13.058999999999999</v>
       </c>
       <c r="E11">
-        <v>13158</v>
+        <v>13.157999999999999</v>
       </c>
       <c r="F11">
-        <v>13130</v>
+        <v>13.13</v>
       </c>
       <c r="G11">
-        <v>12957</v>
+        <v>12.957000000000001</v>
       </c>
       <c r="H11">
-        <v>13063</v>
+        <v>13.063000000000001</v>
       </c>
       <c r="I11">
-        <v>13620</v>
+        <v>13.62</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B12">
-        <v>36718</v>
+        <v>36.718000000000004</v>
       </c>
       <c r="C12">
-        <v>37611</v>
+        <v>37.610999999999997</v>
       </c>
       <c r="D12">
-        <v>36898</v>
+        <v>36.898000000000003</v>
       </c>
       <c r="E12">
-        <v>37175</v>
+        <v>37.174999999999997</v>
       </c>
       <c r="F12">
-        <v>37098</v>
+        <v>37.097999999999999</v>
       </c>
       <c r="G12">
-        <v>36608</v>
+        <v>36.607999999999997</v>
       </c>
       <c r="H12">
-        <v>36908</v>
+        <v>36.908000000000001</v>
       </c>
       <c r="I12">
-        <v>38480</v>
+        <v>38.479999999999997</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B13">
-        <v>48739</v>
+        <v>48.738999999999997</v>
       </c>
       <c r="C13">
-        <v>49924</v>
+        <v>49.923999999999999</v>
       </c>
       <c r="D13">
-        <v>48977</v>
+        <v>48.976999999999997</v>
       </c>
       <c r="E13">
-        <v>49345</v>
+        <v>49.344999999999999</v>
       </c>
       <c r="F13">
-        <v>49243</v>
+        <v>49.243000000000002</v>
       </c>
       <c r="G13">
-        <v>48592</v>
+        <v>48.591999999999999</v>
       </c>
       <c r="H13">
-        <v>48991</v>
+        <v>48.991</v>
       </c>
       <c r="I13">
-        <v>51078</v>
+        <v>51.078000000000003</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B14">
-        <v>191241</v>
+        <v>191.24100000000001</v>
       </c>
       <c r="C14">
-        <v>192414</v>
+        <v>192.41399999999999</v>
       </c>
       <c r="D14">
-        <v>192176</v>
+        <v>192.17599999999999</v>
       </c>
       <c r="E14">
-        <v>192916</v>
+        <v>192.916</v>
       </c>
       <c r="F14">
-        <v>193220</v>
+        <v>193.22</v>
       </c>
       <c r="G14">
-        <v>192342</v>
+        <v>192.34200000000001</v>
       </c>
       <c r="H14">
-        <v>192233</v>
+        <v>192.233</v>
       </c>
       <c r="I14">
-        <v>199547</v>
+        <v>199.547</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -1765,28 +1782,28 @@
         <v>10</v>
       </c>
       <c r="B15">
-        <v>56907</v>
+        <v>56.906999999999996</v>
       </c>
       <c r="C15">
-        <v>57256</v>
+        <v>57.256</v>
       </c>
       <c r="D15">
-        <v>57185</v>
+        <v>57.185000000000002</v>
       </c>
       <c r="E15">
-        <v>58305</v>
+        <v>58.305</v>
       </c>
       <c r="F15">
-        <v>57495</v>
+        <v>57.494999999999997</v>
       </c>
       <c r="G15">
-        <v>57952</v>
+        <v>57.951999999999998</v>
       </c>
       <c r="H15">
-        <v>57202</v>
+        <v>57.201999999999998</v>
       </c>
       <c r="I15">
-        <v>61846</v>
+        <v>61.845999999999997</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -1794,28 +1811,28 @@
         <v>13</v>
       </c>
       <c r="B16">
-        <v>51956</v>
+        <v>51.956000000000003</v>
       </c>
       <c r="C16">
-        <v>50986</v>
+        <v>50.985999999999997</v>
       </c>
       <c r="D16">
-        <v>52210</v>
+        <v>52.21</v>
       </c>
       <c r="E16">
-        <v>51912</v>
+        <v>51.911999999999999</v>
       </c>
       <c r="F16">
-        <v>52494</v>
+        <v>52.494</v>
       </c>
       <c r="G16">
-        <v>52076</v>
+        <v>52.076000000000001</v>
       </c>
       <c r="H16">
-        <v>52225</v>
+        <v>52.225000000000001</v>
       </c>
       <c r="I16">
-        <v>51951</v>
+        <v>51.951000000000001</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -1823,271 +1840,262 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>40197</v>
+        <v>40.197000000000003</v>
       </c>
       <c r="C17">
-        <v>41175</v>
+        <v>41.174999999999997</v>
       </c>
       <c r="D17">
-        <v>39945</v>
+        <v>39.945</v>
       </c>
       <c r="E17">
-        <v>40245</v>
+        <v>40.244999999999997</v>
       </c>
       <c r="F17">
-        <v>40613</v>
+        <v>40.613</v>
       </c>
       <c r="G17">
-        <v>40077</v>
+        <v>40.076999999999998</v>
       </c>
       <c r="H17">
-        <v>39930</v>
+        <v>39.93</v>
       </c>
       <c r="I17">
-        <v>41168</v>
+        <v>41.167999999999999</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B18">
-        <v>310.5</v>
+        <v>0.3105</v>
       </c>
       <c r="C18">
-        <v>318.10000000000002</v>
+        <v>0.31810000000000005</v>
       </c>
       <c r="D18">
-        <v>312</v>
+        <v>0.312</v>
       </c>
       <c r="E18">
-        <v>314.39999999999998</v>
+        <v>0.31439999999999996</v>
       </c>
       <c r="F18">
-        <v>313.7</v>
+        <v>0.31369999999999998</v>
       </c>
       <c r="G18">
-        <v>309.60000000000002</v>
+        <v>0.30960000000000004</v>
       </c>
       <c r="H18">
-        <v>312.39999999999998</v>
+        <v>0.31239999999999996</v>
       </c>
       <c r="I18">
-        <v>325.7</v>
+        <v>0.32569999999999999</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B19">
-        <v>90000</v>
+        <v>90</v>
       </c>
       <c r="C19">
-        <v>90000</v>
+        <v>90</v>
       </c>
       <c r="D19">
-        <v>90000</v>
+        <v>90</v>
       </c>
       <c r="E19">
-        <v>90000</v>
+        <v>90</v>
       </c>
       <c r="F19">
-        <v>90000</v>
+        <v>90</v>
       </c>
       <c r="G19">
-        <v>90000</v>
+        <v>90</v>
       </c>
       <c r="H19">
-        <v>90000</v>
+        <v>90</v>
       </c>
       <c r="I19">
-        <v>90000</v>
+        <v>90</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B20">
-        <v>3930</v>
+        <v>3.93</v>
       </c>
       <c r="C20">
-        <v>3758</v>
+        <v>3.758</v>
       </c>
       <c r="D20">
-        <v>3949</v>
+        <v>3.9489999999999998</v>
       </c>
       <c r="E20">
-        <v>3979</v>
+        <v>3.9790000000000001</v>
       </c>
       <c r="F20">
-        <v>3970</v>
+        <v>3.97</v>
       </c>
       <c r="G20">
-        <v>4233</v>
+        <v>4.2329999999999997</v>
       </c>
       <c r="H20">
-        <v>4051</v>
+        <v>4.0510000000000002</v>
       </c>
       <c r="I20">
-        <v>4605</v>
+        <v>4.6050000000000004</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B21">
-        <f>B8-B9</f>
-        <v>4265.99</v>
+        <v>4.2659899999999995</v>
       </c>
       <c r="C21">
-        <f t="shared" ref="C21:H21" si="0">C8-C9</f>
-        <v>4369.0200000000004</v>
+        <v>4.3690200000000008</v>
       </c>
       <c r="D21">
-        <f t="shared" si="0"/>
-        <v>4313.6000000000004</v>
+        <v>4.3136000000000001</v>
       </c>
       <c r="E21">
-        <f t="shared" si="0"/>
-        <v>4345.9799999999996</v>
+        <v>4.34598</v>
       </c>
       <c r="F21">
-        <f t="shared" si="0"/>
-        <v>4310.1499999999996</v>
+        <v>4.3101499999999993</v>
       </c>
       <c r="G21">
-        <f t="shared" si="0"/>
-        <v>4253.24</v>
+        <v>4.2532399999999999</v>
       </c>
       <c r="H21">
-        <f t="shared" si="0"/>
-        <v>4823.3</v>
+        <v>4.8233000000000006</v>
       </c>
       <c r="I21">
-        <f>I8-I9</f>
-        <v>5059.8</v>
+        <v>5.0598000000000001</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE60EFDF-E3C7-4D46-9E01-C92C34E8302C}">
-  <dimension ref="A1:C9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69FC95D1-75D3-4FC1-8BD0-E409EF22F85A}">
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="9" customWidth="1"/>
-    <col min="3" max="3" width="9.5703125" customWidth="1"/>
+    <col min="1" max="1" width="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="7">
-        <v>66097</v>
+      <c r="B1" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2">
+        <v>11</v>
       </c>
       <c r="C2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="7">
-        <v>4394.0520153288207</v>
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3">
+        <v>11</v>
       </c>
       <c r="C3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4">
+        <v>10</v>
+      </c>
+      <c r="C4">
+        <v>4</v>
+      </c>
+      <c r="D4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5">
         <v>11</v>
       </c>
-      <c r="B4" s="7">
-        <v>6635.1878226377448</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="7">
-        <v>0</v>
-      </c>
-      <c r="C5" s="7">
-        <v>2409.4840430959011</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="7">
-        <v>0</v>
-      </c>
-      <c r="C6" s="7">
-        <v>4326.160954714258</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="7">
-        <v>0</v>
-      </c>
-      <c r="C7" s="7">
-        <v>3117.1075391811537</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" s="7">
-        <v>0</v>
-      </c>
-      <c r="C8" s="7">
-        <v>4194.4146293316589</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" s="7">
-        <v>0</v>
-      </c>
-      <c r="C9" s="7">
-        <v>29.129328756030191</v>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6">
+        <v>10</v>
+      </c>
+      <c r="C6">
+        <v>4</v>
+      </c>
+      <c r="D6" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7">
+        <v>10</v>
+      </c>
+      <c r="C7">
+        <v>4</v>
+      </c>
+      <c r="D7" t="s">
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -2118,18 +2126,18 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B3" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -2138,114 +2146,116 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69FC95D1-75D3-4FC1-8BD0-E409EF22F85A}">
-  <dimension ref="A1:D7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE60EFDF-E3C7-4D46-9E01-C92C34E8302C}">
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="U7" sqref="U7"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25" customWidth="1"/>
+    <col min="2" max="2" width="9" customWidth="1"/>
+    <col min="3" max="3" width="9.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="B2">
+      <c r="B1" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="7">
+        <v>66097</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="7">
+        <v>4394.0520153288207</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>11</v>
       </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B3">
-        <v>11</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="B4">
-        <v>10</v>
+      <c r="B4" s="7">
+        <v>6635.1878226377448</v>
       </c>
       <c r="C4">
-        <v>4</v>
-      </c>
-      <c r="D4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="B5">
-        <v>11</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="B6">
-        <v>10</v>
-      </c>
-      <c r="C6">
-        <v>4</v>
-      </c>
-      <c r="D6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="B7">
-        <v>10</v>
-      </c>
-      <c r="C7">
-        <v>3</v>
-      </c>
-      <c r="D7" t="s">
-        <v>40</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="7">
+        <v>0</v>
+      </c>
+      <c r="C5" s="7">
+        <v>2409.4840430959011</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="7">
+        <v>0</v>
+      </c>
+      <c r="C6" s="7">
+        <v>4326.160954714258</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="7">
+        <v>0</v>
+      </c>
+      <c r="C7" s="7">
+        <v>3117.1075391811537</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="7">
+        <v>0</v>
+      </c>
+      <c r="C8" s="7">
+        <v>4194.4146293316589</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>96</v>
+      </c>
+      <c r="B9" s="7">
+        <v>0</v>
+      </c>
+      <c r="C9" s="7">
+        <v>29.129328756030191</v>
       </c>
     </row>
   </sheetData>
@@ -2257,8 +2267,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08F60061-47AB-4282-9AC7-96E8556A84C1}">
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2271,18 +2281,18 @@
         <v>4</v>
       </c>
       <c r="C1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C2">
-        <v>22.5</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -2290,7 +2300,7 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C3" s="9">
         <v>0.98</v>
@@ -2301,7 +2311,7 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C4" s="9">
         <v>356.19</v>
@@ -2312,7 +2322,7 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C5" s="9">
         <v>289.63</v>
@@ -2323,7 +2333,7 @@
         <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C6" s="9">
         <v>120.83</v>
@@ -2334,7 +2344,7 @@
         <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C7" s="9">
         <v>13.61</v>
@@ -2345,7 +2355,7 @@
         <v>18</v>
       </c>
       <c r="B8" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C8" s="9">
         <v>69.23</v>
@@ -2356,7 +2366,7 @@
         <v>20</v>
       </c>
       <c r="B9" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C9" s="9">
         <v>35.44</v>
@@ -2364,10 +2374,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>96</v>
       </c>
       <c r="B10" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C10" s="9">
         <v>0.13</v>
@@ -2375,10 +2385,10 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>25</v>
+        <v>95</v>
       </c>
       <c r="B11" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C11" s="9">
         <v>9.8800000000000008</v>
@@ -2386,10 +2396,10 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B12" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C12" s="9">
         <v>0.1</v>
@@ -2397,10 +2407,10 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>27</v>
+        <v>97</v>
       </c>
       <c r="B13" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C13" s="9">
         <v>5.24</v>

--- a/Examples/cicloComb/cicloComb_model.xlsx
+++ b/Examples/cicloComb/cicloComb_model.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unizares-my.sharepoint.com/personal/ctorresc_unizar_es/Documents/Termoeconomia/Manual TaesLab/Ejemplos/cicloComb/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Termoeconomia\TaesLab\Examples\cicloComb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="33" documentId="13_ncr:1_{75C643AA-AFFD-4A4C-A8EB-A86CB901D2CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C92EBF0B-C522-48EA-98B2-922D84BDBD1B}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98A24046-3B22-4E43-A4CF-0B2D3993B99E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" firstSheet="3" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9525" yWindow="780" windowWidth="17265" windowHeight="12525" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PhysicalDiagram" sheetId="10" r:id="rId1"/>
@@ -1991,7 +1991,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69FC95D1-75D3-4FC1-8BD0-E409EF22F85A}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -2267,8 +2267,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08F60061-47AB-4282-9AC7-96E8556A84C1}">
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Examples/cicloComb/cicloComb_model.xlsx
+++ b/Examples/cicloComb/cicloComb_model.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Termoeconomia\TaesLab\Examples\cicloComb\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ctorr\Documents\Proyectos\TaesLab\Examples\cicloComb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98A24046-3B22-4E43-A4CF-0B2D3993B99E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99D92B6F-4191-4AB3-A6D9-22F828E46B02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9525" yWindow="780" windowWidth="17265" windowHeight="12525" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2730" yWindow="780" windowWidth="25740" windowHeight="14700" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PhysicalDiagram" sheetId="10" r:id="rId1"/>
@@ -24,7 +24,7 @@
     <sheet name="ResourcesCost" sheetId="12" r:id="rId9"/>
   </sheets>
   <definedNames>
-    <definedName name="cgam_processes" localSheetId="3">Processes!$A$1:$E$1</definedName>
+    <definedName name="cgam_processes" localSheetId="3">Processes!$A$1:$D$1</definedName>
     <definedName name="tgas_c0" localSheetId="8">ResourcesCost!$A$1:$C$2</definedName>
     <definedName name="tgas_fmt" localSheetId="5">Format!$A$1:$D$7</definedName>
   </definedNames>
@@ -81,7 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="102">
   <si>
     <t>key</t>
   </si>
@@ -384,6 +384,9 @@
   </si>
   <si>
     <t>(€/MWh)</t>
+  </si>
+  <si>
+    <t>recycle</t>
   </si>
 </sst>
 </file>
@@ -1138,16 +1141,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="22" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" customWidth="1"/>
     <col min="3" max="3" width="19" customWidth="1"/>
     <col min="4" max="4" width="17.5703125" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" customWidth="1"/>
+    <col min="5" max="5" width="20" customWidth="1"/>
     <col min="6" max="6" width="21.85546875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1156,7 +1159,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
@@ -1165,7 +1168,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -1173,7 +1176,7 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>80</v>
@@ -1182,7 +1185,7 @@
         <v>57</v>
       </c>
       <c r="E2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -1190,7 +1193,7 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>10</v>
@@ -1199,7 +1202,7 @@
         <v>45</v>
       </c>
       <c r="E3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -1207,7 +1210,7 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>58</v>
@@ -1216,7 +1219,7 @@
         <v>44</v>
       </c>
       <c r="E4" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -1224,7 +1227,7 @@
         <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>60</v>
@@ -1233,7 +1236,7 @@
         <v>59</v>
       </c>
       <c r="E5" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -1241,7 +1244,7 @@
         <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>61</v>
@@ -1250,7 +1253,7 @@
         <v>62</v>
       </c>
       <c r="E6" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -1258,7 +1261,7 @@
         <v>18</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>69</v>
@@ -1267,7 +1270,7 @@
         <v>70</v>
       </c>
       <c r="E7" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -1275,7 +1278,7 @@
         <v>20</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>71</v>
@@ -1284,7 +1287,7 @@
         <v>22</v>
       </c>
       <c r="E8" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -1292,7 +1295,7 @@
         <v>96</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>79</v>
@@ -1301,7 +1304,7 @@
         <v>63</v>
       </c>
       <c r="E9" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -1309,7 +1312,7 @@
         <v>95</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>43</v>
@@ -1318,15 +1321,15 @@
         <v>81</v>
       </c>
       <c r="E10" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>26</v>
       </c>
-      <c r="B11" t="s">
-        <v>27</v>
+      <c r="B11" s="4" t="s">
+        <v>68</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>50</v>
@@ -1334,16 +1337,16 @@
       <c r="D11" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="E11" s="4" t="s">
-        <v>68</v>
+      <c r="E11" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>97</v>
       </c>
-      <c r="B12" t="s">
-        <v>25</v>
+      <c r="B12" s="4" t="s">
+        <v>68</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>64</v>
@@ -1351,8 +1354,8 @@
       <c r="D12" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="E12" s="4" t="s">
-        <v>68</v>
+      <c r="E12" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -1991,7 +1994,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69FC95D1-75D3-4FC1-8BD0-E409EF22F85A}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -2105,10 +2108,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4939E53-66EB-4551-B574-BEF03A9048BD}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2116,28 +2119,37 @@
     <col min="2" max="2" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" s="8" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>66</v>
       </c>
       <c r="B2" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>65</v>
       </c>
       <c r="B3" t="s">
         <v>72</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
